--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://therapycarecomau.sharepoint.com/sites/FinancialManagement/Shared Documents/FM-Files/01. NDIS Management Accounting/ZZ. Finance Files/Price Guides/FY 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Flask_BackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DB64E372-B4C0-4C80-B58D-EA428D06A698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA139C60-698B-4D46-B609-1542CDF115B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4EB17C-6871-4B9F-B5B9-27CEA3461C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB Support Catalogue 2019-20 Fe" sheetId="1" r:id="rId1"/>
@@ -4499,9 +4499,6 @@
     <t>13_590_0102_4_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Improved life choices </t>
-  </si>
-  <si>
     <t>14_031_0127_8_3</t>
   </si>
   <si>
@@ -4782,6 +4779,9 @@
   </si>
   <si>
     <t>15_429_0114_1_3</t>
+  </si>
+  <si>
+    <t>Improved life choices</t>
   </si>
 </sst>
 </file>
@@ -4789,7 +4789,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -5279,9 +5279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5640,26 +5640,26 @@
   <dimension ref="A1:K803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="A738" sqref="A738"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>11</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>311</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>311</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>316</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>316</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>316</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>316</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>316</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>316</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>316</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>316</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>316</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>316</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>316</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>316</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>316</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>316</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>316</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>316</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>316</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>316</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>316</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>316</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>316</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>316</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>316</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>316</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>316</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>316</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>316</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>316</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>316</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>316</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>316</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>316</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>316</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>316</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>316</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>316</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>316</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>316</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>316</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>316</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>316</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>316</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>316</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>316</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>316</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>316</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>316</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>316</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>316</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>316</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>316</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>430</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>430</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>430</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>430</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>430</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>430</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>430</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>430</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>430</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>430</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>430</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>430</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>430</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>430</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>430</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>430</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>430</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>430</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>430</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>430</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>430</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>430</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>430</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>430</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>430</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>430</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>430</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>430</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>430</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>430</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>430</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>430</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>430</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>430</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>430</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>430</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>430</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>430</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>430</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>430</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>430</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>430</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>430</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>430</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>430</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>430</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>430</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>430</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>430</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>430</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>430</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>430</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>430</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>430</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>430</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>430</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>430</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>430</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>430</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>430</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>430</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>430</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>430</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>430</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>430</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>430</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>430</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>430</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>430</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>430</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>430</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>430</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>430</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>430</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>430</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>430</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>430</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>430</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>430</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>430</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>430</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>430</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>430</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>430</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>430</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>430</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>430</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>430</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>430</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>430</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>430</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>430</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>430</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>430</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>430</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>430</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>430</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>430</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>430</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>430</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>430</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>430</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>430</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>430</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>430</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>430</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>430</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>430</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>430</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>430</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>430</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>430</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>430</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>430</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>430</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>430</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>430</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>430</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>430</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>430</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>430</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>430</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>430</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>430</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>430</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>430</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>430</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>430</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>430</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>430</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>430</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>430</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>430</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>430</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>430</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>430</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>430</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>430</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>430</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>430</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>430</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>430</v>
       </c>
@@ -16579,7 +16579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>430</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>430</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>430</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>430</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>430</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>430</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>430</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>430</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>430</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>430</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>430</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>430</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>430</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>430</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>430</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>430</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>430</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>430</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>430</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>430</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>430</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>430</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>430</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>430</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>430</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>430</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>430</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>430</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>430</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>430</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>430</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>430</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>430</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>430</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>430</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>430</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>430</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>430</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>430</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>430</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>430</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>430</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>430</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>430</v>
       </c>
@@ -18119,7 +18119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>430</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>430</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>430</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>430</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>430</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>430</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>430</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>430</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>430</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>430</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>430</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>430</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>430</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>430</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>430</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>430</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>430</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>430</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>430</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>430</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>430</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>430</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>430</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>430</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>430</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>430</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>430</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>430</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>430</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>430</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>430</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>430</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>430</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>430</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>430</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>877</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>877</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>877</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>877</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>877</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>877</v>
       </c>
@@ -19489,7 +19489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>877</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>877</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>877</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>877</v>
       </c>
@@ -19569,7 +19569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>877</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>877</v>
       </c>
@@ -19609,7 +19609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>877</v>
       </c>
@@ -19629,7 +19629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>877</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>877</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>877</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>877</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>877</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>877</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>877</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>877</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>877</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>877</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>877</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>877</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>877</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>877</v>
       </c>
@@ -19909,7 +19909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>877</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>877</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>877</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>877</v>
       </c>
@@ -19989,7 +19989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>877</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>877</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>877</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>877</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>877</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>877</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>877</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>877</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>877</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>877</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>877</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>877</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>877</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>877</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>877</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>877</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>877</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>877</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>877</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>877</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>877</v>
       </c>
@@ -20409,7 +20409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>877</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>877</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>877</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>877</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>877</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>877</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>877</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>877</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>877</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>877</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>877</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>877</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>877</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>877</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>877</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>877</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>877</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>877</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>877</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>877</v>
       </c>
@@ -20809,7 +20809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>877</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>877</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>877</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>877</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>877</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>877</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>877</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>877</v>
       </c>
@@ -20969,7 +20969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>877</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>877</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>877</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>877</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>877</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>877</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>877</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>877</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>877</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>877</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>877</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>877</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>877</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>877</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>877</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>877</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>877</v>
       </c>
@@ -21309,7 +21309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>877</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>877</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>877</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>877</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>877</v>
       </c>
@@ -21409,7 +21409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>877</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>877</v>
       </c>
@@ -21449,7 +21449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>877</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>877</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>877</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>877</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>877</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>877</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>877</v>
       </c>
@@ -21589,7 +21589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>877</v>
       </c>
@@ -21609,7 +21609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>877</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>877</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>877</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>877</v>
       </c>
@@ -21689,7 +21689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>877</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>877</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>877</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>877</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>877</v>
       </c>
@@ -21789,7 +21789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>877</v>
       </c>
@@ -21809,7 +21809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>877</v>
       </c>
@@ -21829,7 +21829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>877</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>877</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>877</v>
       </c>
@@ -21889,7 +21889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>877</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>877</v>
       </c>
@@ -21929,7 +21929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>877</v>
       </c>
@@ -21949,7 +21949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>877</v>
       </c>
@@ -21969,7 +21969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>877</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>877</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>877</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>877</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>877</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>877</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>877</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>877</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>877</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>877</v>
       </c>
@@ -22169,7 +22169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>877</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>877</v>
       </c>
@@ -22209,7 +22209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>877</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>877</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>877</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>877</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>877</v>
       </c>
@@ -22309,7 +22309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>877</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>877</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>877</v>
       </c>
@@ -22369,7 +22369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>877</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>877</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>877</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>877</v>
       </c>
@@ -22449,7 +22449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>877</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>877</v>
       </c>
@@ -22489,7 +22489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>877</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>877</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>877</v>
       </c>
@@ -22549,7 +22549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>877</v>
       </c>
@@ -22569,7 +22569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>877</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>877</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>877</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>877</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>877</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>877</v>
       </c>
@@ -22689,7 +22689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>877</v>
       </c>
@@ -22709,7 +22709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>877</v>
       </c>
@@ -22729,7 +22729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>877</v>
       </c>
@@ -22749,7 +22749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>877</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>877</v>
       </c>
@@ -22789,7 +22789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>877</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>877</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>877</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>877</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>877</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>877</v>
       </c>
@@ -22909,7 +22909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>877</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>877</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>877</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>877</v>
       </c>
@@ -22989,7 +22989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>877</v>
       </c>
@@ -23009,7 +23009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>877</v>
       </c>
@@ -23029,7 +23029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>877</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>877</v>
       </c>
@@ -23069,7 +23069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>877</v>
       </c>
@@ -23089,7 +23089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>877</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>877</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>877</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>877</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>877</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>877</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>877</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>877</v>
       </c>
@@ -23249,7 +23249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>877</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>877</v>
       </c>
@@ -23289,7 +23289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>877</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>877</v>
       </c>
@@ -23329,7 +23329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>877</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>877</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>877</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>877</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>877</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>877</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>877</v>
       </c>
@@ -23469,7 +23469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>877</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>877</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>877</v>
       </c>
@@ -23529,7 +23529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>877</v>
       </c>
@@ -23549,7 +23549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>877</v>
       </c>
@@ -23569,7 +23569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>877</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>877</v>
       </c>
@@ -23609,7 +23609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>877</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>877</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>877</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>877</v>
       </c>
@@ -23689,7 +23689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>877</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>877</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>877</v>
       </c>
@@ -23749,7 +23749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>877</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>877</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>877</v>
       </c>
@@ -23809,7 +23809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>877</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>877</v>
       </c>
@@ -23849,7 +23849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>877</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>877</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>877</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>877</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>877</v>
       </c>
@@ -23949,7 +23949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>877</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>877</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>877</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>877</v>
       </c>
@@ -24029,7 +24029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>877</v>
       </c>
@@ -24049,7 +24049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>877</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>877</v>
       </c>
@@ -24089,7 +24089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>877</v>
       </c>
@@ -24109,7 +24109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>877</v>
       </c>
@@ -24129,7 +24129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>877</v>
       </c>
@@ -24149,7 +24149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>877</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>877</v>
       </c>
@@ -24189,7 +24189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1360</v>
       </c>
@@ -24209,7 +24209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1360</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1360</v>
       </c>
@@ -24249,7 +24249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1360</v>
       </c>
@@ -24269,7 +24269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1360</v>
       </c>
@@ -24289,7 +24289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1360</v>
       </c>
@@ -24309,7 +24309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1360</v>
       </c>
@@ -24329,7 +24329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1360</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1360</v>
       </c>
@@ -24369,7 +24369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1360</v>
       </c>
@@ -24389,7 +24389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1360</v>
       </c>
@@ -24409,7 +24409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1360</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1360</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1360</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1360</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1360</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1360</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1360</v>
       </c>
@@ -24549,7 +24549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1360</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1360</v>
       </c>
@@ -24589,7 +24589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1360</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1360</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1360</v>
       </c>
@@ -24649,7 +24649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1360</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1360</v>
       </c>
@@ -24689,7 +24689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1360</v>
       </c>
@@ -24709,7 +24709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1360</v>
       </c>
@@ -24729,7 +24729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1360</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1417</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1417</v>
       </c>
@@ -24819,7 +24819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1417</v>
       </c>
@@ -24854,7 +24854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1417</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1426</v>
       </c>
@@ -24924,7 +24924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1426</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1430</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1430</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1430</v>
       </c>
@@ -25034,7 +25034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1430</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1430</v>
       </c>
@@ -25089,7 +25089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1430</v>
       </c>
@@ -25109,7 +25109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1430</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1443</v>
       </c>
@@ -25164,7 +25164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1443</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1443</v>
       </c>
@@ -25204,7 +25204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1443</v>
       </c>
@@ -25224,7 +25224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1443</v>
       </c>
@@ -25244,7 +25244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1443</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1443</v>
       </c>
@@ -25314,7 +25314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1443</v>
       </c>
@@ -25334,7 +25334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1443</v>
       </c>
@@ -25354,7 +25354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1443</v>
       </c>
@@ -25374,7 +25374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1443</v>
       </c>
@@ -25394,7 +25394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1465</v>
       </c>
@@ -25429,7 +25429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1465</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1465</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1465</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1473</v>
       </c>
@@ -25554,7 +25554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1473</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1473</v>
       </c>
@@ -25624,7 +25624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1473</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1473</v>
       </c>
@@ -25694,7 +25694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1473</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1473</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1485</v>
       </c>
@@ -25799,7 +25799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1485</v>
       </c>
@@ -25819,15 +25819,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B736" t="s">
         <v>1489</v>
       </c>
-      <c r="B736" t="s">
+      <c r="C736" t="s">
         <v>1490</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1491</v>
       </c>
       <c r="D736" t="s">
         <v>19</v>
@@ -25854,15 +25854,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1489</v>
+        <v>1583</v>
       </c>
       <c r="B737" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C737" t="s">
         <v>1492</v>
-      </c>
-      <c r="C737" t="s">
-        <v>1493</v>
       </c>
       <c r="D737" t="s">
         <v>14</v>
@@ -25889,15 +25889,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1489</v>
+        <v>1583</v>
       </c>
       <c r="B738" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C738" t="s">
         <v>1494</v>
-      </c>
-      <c r="C738" t="s">
-        <v>1495</v>
       </c>
       <c r="D738" t="s">
         <v>429</v>
@@ -25924,12 +25924,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B739" t="s">
         <v>1496</v>
-      </c>
-      <c r="B739" t="s">
-        <v>1497</v>
       </c>
       <c r="C739" t="s">
         <v>298</v>
@@ -25959,15 +25959,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B740" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C740" t="s">
         <v>1498</v>
-      </c>
-      <c r="C740" t="s">
-        <v>1499</v>
       </c>
       <c r="D740" t="s">
         <v>19</v>
@@ -25994,12 +25994,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B741" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C741" t="s">
         <v>302</v>
@@ -26029,15 +26029,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B742" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C742" t="s">
         <v>1501</v>
-      </c>
-      <c r="C742" t="s">
-        <v>1502</v>
       </c>
       <c r="D742" t="s">
         <v>19</v>
@@ -26064,12 +26064,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B743" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C743" t="s">
         <v>306</v>
@@ -26099,15 +26099,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B744" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C744" t="s">
         <v>1504</v>
-      </c>
-      <c r="C744" t="s">
-        <v>1505</v>
       </c>
       <c r="D744" t="s">
         <v>19</v>
@@ -26134,15 +26134,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B745" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C745" t="s">
         <v>1506</v>
-      </c>
-      <c r="C745" t="s">
-        <v>1507</v>
       </c>
       <c r="D745" t="s">
         <v>19</v>
@@ -26169,15 +26169,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B746" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C746" t="s">
         <v>1508</v>
-      </c>
-      <c r="C746" t="s">
-        <v>1509</v>
       </c>
       <c r="D746" t="s">
         <v>19</v>
@@ -26204,15 +26204,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B747" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C747" t="s">
         <v>1510</v>
-      </c>
-      <c r="C747" t="s">
-        <v>1511</v>
       </c>
       <c r="D747" t="s">
         <v>19</v>
@@ -26239,15 +26239,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B748" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C748" t="s">
         <v>1512</v>
-      </c>
-      <c r="C748" t="s">
-        <v>1513</v>
       </c>
       <c r="D748" t="s">
         <v>19</v>
@@ -26274,15 +26274,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B749" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C749" t="s">
         <v>1514</v>
-      </c>
-      <c r="C749" t="s">
-        <v>1515</v>
       </c>
       <c r="D749" t="s">
         <v>19</v>
@@ -26309,15 +26309,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B750" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C750" t="s">
         <v>1516</v>
-      </c>
-      <c r="C750" t="s">
-        <v>1517</v>
       </c>
       <c r="D750" t="s">
         <v>19</v>
@@ -26344,35 +26344,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B751" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C751" t="s">
         <v>1518</v>
       </c>
-      <c r="C751" t="s">
+      <c r="D751" t="s">
+        <v>14</v>
+      </c>
+      <c r="E751" t="s">
+        <v>15</v>
+      </c>
+      <c r="F751" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B752" t="s">
         <v>1519</v>
       </c>
-      <c r="D751" t="s">
-        <v>14</v>
-      </c>
-      <c r="E751" t="s">
-        <v>15</v>
-      </c>
-      <c r="F751" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B752" t="s">
+      <c r="C752" t="s">
         <v>1520</v>
-      </c>
-      <c r="C752" t="s">
-        <v>1521</v>
       </c>
       <c r="D752" t="s">
         <v>19</v>
@@ -26399,15 +26399,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B753" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C753" t="s">
         <v>1522</v>
-      </c>
-      <c r="C753" t="s">
-        <v>1523</v>
       </c>
       <c r="D753" t="s">
         <v>19</v>
@@ -26434,15 +26434,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B754" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C754" t="s">
         <v>1524</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1525</v>
       </c>
       <c r="D754" t="s">
         <v>19</v>
@@ -26469,35 +26469,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B755" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C755" t="s">
         <v>1526</v>
       </c>
-      <c r="C755" t="s">
+      <c r="D755" t="s">
+        <v>14</v>
+      </c>
+      <c r="E755" t="s">
+        <v>15</v>
+      </c>
+      <c r="F755" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B756" t="s">
         <v>1527</v>
       </c>
-      <c r="D755" t="s">
-        <v>14</v>
-      </c>
-      <c r="E755" t="s">
-        <v>15</v>
-      </c>
-      <c r="F755" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B756" t="s">
+      <c r="C756" t="s">
         <v>1528</v>
-      </c>
-      <c r="C756" t="s">
-        <v>1529</v>
       </c>
       <c r="D756" t="s">
         <v>19</v>
@@ -26524,35 +26524,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B757" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C757" t="s">
         <v>1530</v>
       </c>
-      <c r="C757" t="s">
+      <c r="D757" t="s">
+        <v>14</v>
+      </c>
+      <c r="E757" t="s">
+        <v>15</v>
+      </c>
+      <c r="F757" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B758" t="s">
         <v>1531</v>
       </c>
-      <c r="D757" t="s">
-        <v>14</v>
-      </c>
-      <c r="E757" t="s">
-        <v>15</v>
-      </c>
-      <c r="F757" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B758" t="s">
+      <c r="C758" t="s">
         <v>1532</v>
-      </c>
-      <c r="C758" t="s">
-        <v>1533</v>
       </c>
       <c r="D758" t="s">
         <v>19</v>
@@ -26579,15 +26579,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B759" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C759" t="s">
         <v>1534</v>
-      </c>
-      <c r="C759" t="s">
-        <v>1535</v>
       </c>
       <c r="D759" t="s">
         <v>19</v>
@@ -26614,15 +26614,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B760" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C760" t="s">
         <v>1536</v>
-      </c>
-      <c r="C760" t="s">
-        <v>1537</v>
       </c>
       <c r="D760" t="s">
         <v>19</v>
@@ -26649,12 +26649,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B761" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C761" t="s">
         <v>300</v>
@@ -26684,12 +26684,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B762" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C762" t="s">
         <v>304</v>
@@ -26719,12 +26719,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B763" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C763" t="s">
         <v>308</v>
@@ -26754,15 +26754,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B764" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C764" t="s">
         <v>1541</v>
-      </c>
-      <c r="C764" t="s">
-        <v>1542</v>
       </c>
       <c r="D764" t="s">
         <v>19</v>
@@ -26789,15 +26789,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B765" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C765" t="s">
         <v>1543</v>
-      </c>
-      <c r="C765" t="s">
-        <v>1544</v>
       </c>
       <c r="D765" t="s">
         <v>19</v>
@@ -26824,15 +26824,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B766" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C766" t="s">
         <v>1545</v>
-      </c>
-      <c r="C766" t="s">
-        <v>1546</v>
       </c>
       <c r="D766" t="s">
         <v>19</v>
@@ -26859,12 +26859,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B767" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C767" t="s">
         <v>310</v>
@@ -26894,12 +26894,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B768" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C768" t="s">
         <v>1476</v>
@@ -26929,12 +26929,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B769" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C769" t="s">
         <v>1478</v>
@@ -26964,12 +26964,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B770" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C770" t="s">
         <v>1478</v>
@@ -26999,12 +26999,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B771" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C771" t="s">
         <v>1481</v>
@@ -27034,12 +27034,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B772" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C772" t="s">
         <v>1481</v>
@@ -27069,15 +27069,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B773" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C773" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D773" t="s">
         <v>14</v>
@@ -27104,12 +27104,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B774" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C774" t="s">
         <v>237</v>
@@ -27139,12 +27139,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B775" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C775" t="s">
         <v>240</v>
@@ -27174,12 +27174,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B776" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C776" t="s">
         <v>242</v>
@@ -27209,12 +27209,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B777" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C777" t="s">
         <v>244</v>
@@ -27244,12 +27244,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B778" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C778" t="s">
         <v>246</v>
@@ -27279,12 +27279,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B779" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C779" t="s">
         <v>248</v>
@@ -27314,12 +27314,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B780" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C780" t="s">
         <v>250</v>
@@ -27349,12 +27349,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B781" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C781" t="s">
         <v>252</v>
@@ -27384,12 +27384,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B782" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C782" t="s">
         <v>254</v>
@@ -27419,12 +27419,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B783" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C783" t="s">
         <v>256</v>
@@ -27454,12 +27454,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B784" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C784" t="s">
         <v>258</v>
@@ -27489,12 +27489,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B785" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C785" t="s">
         <v>260</v>
@@ -27524,12 +27524,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B786" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C786" t="s">
         <v>262</v>
@@ -27559,12 +27559,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B787" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C787" t="s">
         <v>264</v>
@@ -27594,12 +27594,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B788" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C788" t="s">
         <v>266</v>
@@ -27629,12 +27629,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B789" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C789" t="s">
         <v>268</v>
@@ -27664,12 +27664,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B790" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C790" t="s">
         <v>270</v>
@@ -27699,12 +27699,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B791" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C791" t="s">
         <v>272</v>
@@ -27734,12 +27734,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B792" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C792" t="s">
         <v>274</v>
@@ -27769,12 +27769,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B793" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C793" t="s">
         <v>276</v>
@@ -27804,12 +27804,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B794" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C794" t="s">
         <v>278</v>
@@ -27839,12 +27839,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B795" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C795" t="s">
         <v>280</v>
@@ -27874,12 +27874,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B796" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C796" t="s">
         <v>282</v>
@@ -27909,12 +27909,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B797" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C797" t="s">
         <v>284</v>
@@ -27944,12 +27944,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B798" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C798" t="s">
         <v>286</v>
@@ -27979,12 +27979,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B799" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C799" t="s">
         <v>288</v>
@@ -28014,12 +28014,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B800" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C800" t="s">
         <v>290</v>
@@ -28049,12 +28049,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B801" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C801" t="s">
         <v>292</v>
@@ -28084,12 +28084,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B802" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C802" t="s">
         <v>294</v>
@@ -28119,12 +28119,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B803" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C803" t="s">
         <v>296</v>
@@ -28156,10 +28156,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD4563C6A0827740B57B3C744BE26339" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="177a29766581530f62b0dcc084c20504">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c77c12e-3af6-411c-adf5-c7946a82504a" xmlns:ns3="d81bdcd8-a482-4ab9-b7f4-f6e8e0fd39a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0215e96a3a24ea01a7d250805f8b666c" ns2:_="" ns3:_="">
     <xsd:import namespace="3c77c12e-3af6-411c-adf5-c7946a82504a"/>
@@ -28376,15 +28386,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -28392,6 +28393,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478AC81D-0A1E-4B2A-B470-45E91E7DA504}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED2E1420-15F1-44DB-9592-5EDD370848F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28410,14 +28419,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478AC81D-0A1E-4B2A-B470-45E91E7DA504}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF8D45B-E4C9-4024-BCF6-4BF3316A0EE5}">
   <ds:schemaRefs>
